--- a/classfiers/sota/corelation/corelation-metrics/correlations-chatty.xlsx
+++ b/classfiers/sota/corelation/corelation-metrics/correlations-chatty.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05099971277590341</v>
+        <v>0.05650139992182157</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1086565283842595</v>
+        <v>-0.04168316137943178</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1043203212952741</v>
+        <v>-0.03516942692099755</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07698364455877882</v>
+        <v>-0.01880017748670678</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1028852932139691</v>
+        <v>0.127770274515944</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005730382433191435</v>
+        <v>0.0464997205362074</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05764064470474816</v>
+        <v>-0.07502594601854279</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01441999837029619</v>
+        <v>0.0636152762701085</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.191723004154878</v>
+        <v>0.1991040100088519</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1207874781907887</v>
+        <v>0.1428617231761508</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03390428163583351</v>
+        <v>-0.0676577304540119</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01082359056614783</v>
+        <v>0.03525515780122965</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04179684022915878</v>
+        <v>0.0748943212453301</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2422925645092936</v>
+        <v>0.3117514636095293</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2228895708311631</v>
+        <v>0.280267020658712</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05488376256153268</v>
+        <v>0.02209699157563423</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.05180009508219088</v>
+        <v>0.02197180280525486</v>
       </c>
     </row>
   </sheetData>
